--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cybertech Systems and Software Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cybertech Systems and Software Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -615,7 +615,7 @@
         <v>3.92</v>
       </c>
       <c r="I2">
-        <v>0.51875</v>
+        <v>0.52</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -633,13 +633,13 @@
         <v>-0.77</v>
       </c>
       <c r="O2">
-        <v>2.423888888888889</v>
+        <v>2.42</v>
       </c>
       <c r="P2">
-        <v>0.08375000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="Q2">
-        <v>1.967368421052631</v>
+        <v>1.97</v>
       </c>
       <c r="R2">
         <v>-0.77</v>
@@ -657,13 +657,13 @@
         <v>-0.26</v>
       </c>
       <c r="W2">
-        <v>3.059444444444444</v>
+        <v>3.06</v>
       </c>
       <c r="X2">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y2">
-        <v>11.38888888888889</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -692,7 +692,7 @@
         <v>5.31</v>
       </c>
       <c r="I3">
-        <v>0.51875</v>
+        <v>0.52</v>
       </c>
       <c r="J3">
         <v>1.1</v>
@@ -710,10 +710,10 @@
         <v>0.01</v>
       </c>
       <c r="O3">
-        <v>2.423888888888889</v>
+        <v>2.42</v>
       </c>
       <c r="P3">
-        <v>0.08375000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="Q3">
         <v>0.07000000000000001</v>
@@ -734,13 +734,13 @@
         <v>1.9</v>
       </c>
       <c r="W3">
-        <v>3.059444444444444</v>
+        <v>3.06</v>
       </c>
       <c r="X3">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y3">
-        <v>11.38888888888889</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -790,7 +790,7 @@
         <v>0.12</v>
       </c>
       <c r="P4">
-        <v>0.08375000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="Q4">
         <v>0.24</v>
@@ -867,7 +867,7 @@
         <v>0.4</v>
       </c>
       <c r="P5">
-        <v>0.08375000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="Q5">
         <v>0.5</v>
@@ -1000,7 +1000,7 @@
         <v>8.77</v>
       </c>
       <c r="I7">
-        <v>0.51875</v>
+        <v>0.52</v>
       </c>
       <c r="J7">
         <v>1.81</v>
@@ -1077,7 +1077,7 @@
         <v>11.13</v>
       </c>
       <c r="I8">
-        <v>0.51875</v>
+        <v>0.52</v>
       </c>
       <c r="J8">
         <v>1.63</v>
@@ -1584,7 +1584,7 @@
         <v>3.26</v>
       </c>
       <c r="X14">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y14">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>3.3</v>
       </c>
       <c r="X15">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y15">
         <v>10</v>
@@ -1738,7 +1738,7 @@
         <v>3.32</v>
       </c>
       <c r="X16">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -1815,7 +1815,7 @@
         <v>3.32</v>
       </c>
       <c r="X17">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y17">
         <v>10</v>
@@ -1892,7 +1892,7 @@
         <v>2.75</v>
       </c>
       <c r="X18">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y18">
         <v>10</v>
@@ -1969,7 +1969,7 @@
         <v>2.78</v>
       </c>
       <c r="X19">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y19">
         <v>15</v>
@@ -2046,7 +2046,7 @@
         <v>4.26</v>
       </c>
       <c r="X20">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y20">
         <v>20</v>
@@ -2123,7 +2123,7 @@
         <v>5.69</v>
       </c>
       <c r="X21">
-        <v>0.4640000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Y21">
         <v>20</v>
